--- a/BalanceSheet/AWK_bal.xlsx
+++ b/BalanceSheet/AWK_bal.xlsx
@@ -1810,19 +1810,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>15000000.0</v>
+        <v>189000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>11000000.0</v>
+        <v>162000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>63000000.0</v>
+        <v>169000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-91000000.0</v>
+        <v>152000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>82000000.0</v>
+        <v>203000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>149000000.0</v>
@@ -2802,19 +2802,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>33000000.0</v>
+        <v>2113000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>78000000.0</v>
+        <v>2060000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>58000000.0</v>
+        <v>1980000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>38000000.0</v>
+        <v>1929000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>45000000.0</v>
+        <v>1893000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1904000000.0</v>
